--- a/korean_deid.xlsx
+++ b/korean_deid.xlsx
@@ -563,12 +563,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -576,72 +576,72 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chung-cheong bukdo</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>256</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>남성</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>19600101</t>
+          <t xml:space="preserve"> 27일0101</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>전화</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>afternoon</t>
+          <t>오후</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>삼</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -653,12 +653,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -666,72 +666,72 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chungcheongnam-do</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>254</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>남성</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>19680101</t>
+          <t>월 7일0101</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>이메일</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>아침</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>다섯</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -743,12 +743,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -756,72 +756,72 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Gangwon-do</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>256</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>남성</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>19690101</t>
+          <t>월 2일0101</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>전화</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>afternoon</t>
+          <t>오후</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>여섯</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -846,72 +846,72 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>gyeonggi-do</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>256</t>
         </is>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>남성</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>19700101</t>
+          <t>월 8일0101</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>전화</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>밤</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>삼</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -923,12 +923,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -936,72 +936,72 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Gyeongsangbuk-do</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>256</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>남성</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>19740101</t>
+          <t xml:space="preserve"> 23일0101</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>전화</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>밤</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>둘</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -1026,72 +1026,72 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Gyeongsangnam-do</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>256</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>여자</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>19770101</t>
+          <t xml:space="preserve"> 17일0101</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>이메일</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>아침</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>여섯</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -1116,72 +1116,72 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Jeollabuk do</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>256</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>남성</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>19790101</t>
+          <t xml:space="preserve"> 26일0101</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>이메일</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>afternoon</t>
+          <t>오후</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>둘</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -1193,12 +1193,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1206,72 +1206,72 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Jeollanam-do</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>256</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>남성</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>19800101</t>
+          <t xml:space="preserve"> 15일0101</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>전화</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>밤</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>삼</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -1283,12 +1283,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1296,72 +1296,72 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Chung-cheong bukdo</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>256</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>남성</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>19820101</t>
+          <t xml:space="preserve"> 21일0101</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>이메일</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>밤</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>여섯</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -1373,12 +1373,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1386,72 +1386,72 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chungcheongnam-do</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>256</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>여자</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>19880101</t>
+          <t>월 1일0101</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>이메일</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>밤</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>여섯</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -1463,12 +1463,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1476,72 +1476,72 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Gangwon-do</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>256</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>여자</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>19880101</t>
+          <t xml:space="preserve"> 12일0101</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>전화</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>afternoon</t>
+          <t>오후</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>여섯</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -1553,12 +1553,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1566,72 +1566,72 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>gyeonggi-do</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>255</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>여자</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>19890101</t>
+          <t xml:space="preserve"> 23일0101</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>전화</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>밤</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>둘</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -1643,12 +1643,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1656,72 +1656,72 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Gyeongsangbuk-do</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>255</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>여자</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>19900101</t>
+          <t>월 9일0101</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>전화</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>night</t>
+          <t>밤</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>삼</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1746,72 +1746,72 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Gyeongsangnam-do</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>254</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>남성</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>19900101</t>
+          <t xml:space="preserve"> 22일0101</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>이메일</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>afternoon</t>
+          <t>오후</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>둘</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -1823,12 +1823,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1836,72 +1836,72 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Jeollabuk do</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>254</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>여자</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>19900101</t>
+          <t>월 3일0101</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>이메일</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>아침</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>다섯</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -1913,12 +1913,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1926,72 +1926,72 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Jeollanam-do</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>254</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>남성</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>19910101</t>
+          <t xml:space="preserve"> 10일0101</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>전화</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>아침</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>여섯</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -2016,72 +2016,72 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chung-cheong bukdo</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>255</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>여자</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>19930101</t>
+          <t xml:space="preserve"> 27일0101</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>e-mail</t>
+          <t>이메일</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>afternoon</t>
+          <t>오후</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>삼</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -2093,12 +2093,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -2106,72 +2106,72 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chungcheongnam-do</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>254</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>male</t>
+          <t>남성</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>19930101</t>
+          <t xml:space="preserve"> 14일0101</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>전화</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>아침</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>여섯</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
@@ -2183,12 +2183,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cold-z</t>
+          <t>콜드-z</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>radiator</t>
+          <t>라디에이터</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -2196,72 +2196,72 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Gangwon-do</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>대한민국</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>255</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Woman</t>
+          <t>여자</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>19930101</t>
+          <t xml:space="preserve"> 22일0101</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>Korean</t>
+          <t>한국어</t>
         </is>
       </c>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>telephone</t>
+          <t>전화</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>afternoon</t>
+          <t>오후</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>삼</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr">
         <is>
-          <t>twenty two</t>
+          <t>이십이</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>one hundred seventy eight</t>
+          <t>백칠십팔</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>fifty-three thousand</t>
+          <t>오만 삼천</t>
         </is>
       </c>
     </row>
